--- a/data/trans_dic/P22$concerIndv-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerIndv-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001444520992487407</v>
+        <v>0.001446128808382415</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01018780217360239</v>
+        <v>0.009623921591328652</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.00767950420222855</v>
+        <v>0.007270179122673874</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01760032624895658</v>
+        <v>0.01807189072723942</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.004526669996361863</v>
+        <v>0.004706671902579795</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.009880592048548494</v>
+        <v>0.01016055184237986</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.00771487593897156</v>
+        <v>0.007507379281166809</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02445607990914427</v>
+        <v>0.02416167758178093</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.004526681794845798</v>
+        <v>0.004353008376165052</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01196546797740614</v>
+        <v>0.01253670133777663</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.009532014987651502</v>
+        <v>0.009395795815554102</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02286934007978132</v>
+        <v>0.02386284482085038</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01310393366935718</v>
+        <v>0.01467160247126062</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03430595454368988</v>
+        <v>0.03335287775947676</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0298977603357101</v>
+        <v>0.02777684968021574</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04259367856739438</v>
+        <v>0.04323248813160462</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02270539735604617</v>
+        <v>0.02271606398821292</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03159501994761389</v>
+        <v>0.03091091771718824</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02596771575492024</v>
+        <v>0.02693318270424894</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04674953340608563</v>
+        <v>0.04677247525951422</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01518671779669026</v>
+        <v>0.01491509651717371</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02788332684653734</v>
+        <v>0.02856836887054406</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02436346961885361</v>
+        <v>0.02394067384172125</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03991343420163324</v>
+        <v>0.04155078681938405</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009650294806403521</v>
+        <v>0.009508163708871814</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01611911342728455</v>
+        <v>0.01643432920611907</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02008041229805373</v>
+        <v>0.01960864214141507</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04047630978053449</v>
+        <v>0.04258123474967481</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01945303574737513</v>
+        <v>0.01852747600384777</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0103068060642321</v>
+        <v>0.01044660273028211</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03145773867740958</v>
+        <v>0.03232874993187689</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05292013277793454</v>
+        <v>0.05332016246776142</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01604471360061131</v>
+        <v>0.01598205539990381</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01592047662951114</v>
+        <v>0.01470926648254051</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02879132233454585</v>
+        <v>0.02945074564655378</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05045060065867216</v>
+        <v>0.05188941163586786</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02631859118276592</v>
+        <v>0.026606362319271</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03666830393694713</v>
+        <v>0.03810135820791467</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04289695989087606</v>
+        <v>0.04391141060874559</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07634762855933974</v>
+        <v>0.07925606638207996</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04171152272554416</v>
+        <v>0.04131072862891325</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02757627309691183</v>
+        <v>0.02801728035922411</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05922500246819624</v>
+        <v>0.05928717966561552</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08167065967690272</v>
+        <v>0.07999042209955778</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02988009530397512</v>
+        <v>0.03004252245661162</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02844276398290666</v>
+        <v>0.02863599644629115</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04747050451611093</v>
+        <v>0.04640982751573974</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07278552575503271</v>
+        <v>0.07422424804351306</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.03638221807864225</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.09586539798954337</v>
+        <v>0.09586539798954336</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.04800394935197336</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02839843885102756</v>
+        <v>0.02757662587574829</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02658910522484599</v>
+        <v>0.02722126705744035</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01629858217337179</v>
+        <v>0.01630477792569646</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05458790786882956</v>
+        <v>0.05433463949325592</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03944701391010352</v>
+        <v>0.0382846551497411</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02660998091970439</v>
+        <v>0.02487637818539169</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.025220555334685</v>
+        <v>0.02446908040198414</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07720807044160755</v>
+        <v>0.07876997323776383</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03736778789767448</v>
+        <v>0.03716645833840111</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02903620850257522</v>
+        <v>0.02947516425098563</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02331130809545357</v>
+        <v>0.02356971431815141</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07170508445793337</v>
+        <v>0.07084464401128833</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0615094856420192</v>
+        <v>0.06051709825390433</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06003983383213926</v>
+        <v>0.06057039019676232</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03977142237754103</v>
+        <v>0.03953454102989021</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09292550454654187</v>
+        <v>0.09434907506595126</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07362849338717753</v>
+        <v>0.07274377900287819</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05758597614077333</v>
+        <v>0.05897008072186356</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05111236607649273</v>
+        <v>0.05212235686896197</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1167877458589829</v>
+        <v>0.1189843491725926</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06161099315289673</v>
+        <v>0.06066140081304846</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05211319277555723</v>
+        <v>0.05196124733971281</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04138333086245714</v>
+        <v>0.04170758372904097</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09881845851111314</v>
+        <v>0.09815735999648365</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03427342033318702</v>
+        <v>0.03470387496759959</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.032329494584945</v>
+        <v>0.03227851976096894</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04162845176169846</v>
+        <v>0.04355361356726112</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0774330943616898</v>
+        <v>0.07941334090988654</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0457475239350865</v>
+        <v>0.04388787920293081</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04107427318770792</v>
+        <v>0.04058603805639029</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05590909250810396</v>
+        <v>0.05526842333084225</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.110171741658508</v>
+        <v>0.1109518853026532</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04397228484921294</v>
+        <v>0.04379448887778489</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04085455106528203</v>
+        <v>0.04073188488160393</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05320532579836484</v>
+        <v>0.05355343830578173</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1006354167722776</v>
+        <v>0.09973878105823221</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06208557565442713</v>
+        <v>0.06035123407321777</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06118727768824783</v>
+        <v>0.06075831503721429</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07249739319760191</v>
+        <v>0.07244411612678284</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1167473259774472</v>
+        <v>0.1176753677459355</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07568836278094365</v>
+        <v>0.07346800963097808</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06950577683771338</v>
+        <v>0.06986494898896414</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08751034334732961</v>
+        <v>0.08793458914157445</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1452599921507834</v>
+        <v>0.1475438793337135</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06555221105904092</v>
+        <v>0.06445285653475663</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06068019459776033</v>
+        <v>0.05985266603162632</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07513347155061402</v>
+        <v>0.07561088195612367</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1268288829682145</v>
+        <v>0.1250149570050981</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.03921577079083025</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.07526811528232438</v>
+        <v>0.07526811528232434</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02252599278577135</v>
+        <v>0.02255433086277019</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02676718375725171</v>
+        <v>0.02640231008742972</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02791240989728044</v>
+        <v>0.02716589645833522</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05719604379402483</v>
+        <v>0.05711241735388319</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03277391552490743</v>
+        <v>0.0326707690948568</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02745282753182927</v>
+        <v>0.02725751185358634</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0369159570874145</v>
+        <v>0.03810668278311024</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07655904837284976</v>
+        <v>0.07686084181394559</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02958888213217725</v>
+        <v>0.02964086655360973</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02870493511344608</v>
+        <v>0.02855025011748182</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0343889600039972</v>
+        <v>0.03491728187818138</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0692934127881901</v>
+        <v>0.06935280074348144</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03389527467715938</v>
+        <v>0.03367560297865173</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0400822250879378</v>
+        <v>0.03907096047496042</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04063544269262302</v>
+        <v>0.03974342353299454</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07500952627352894</v>
+        <v>0.0764245130160851</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04716834964403122</v>
+        <v>0.04647818735689761</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04048626710301031</v>
+        <v>0.04015192021710382</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05162134579567989</v>
+        <v>0.05217590359801395</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09269819528655363</v>
+        <v>0.09270786462117087</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0383096186993904</v>
+        <v>0.03859628363265374</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03841486433189305</v>
+        <v>0.03749156722390683</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04428385899146866</v>
+        <v>0.04440655538373068</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08147794043465999</v>
+        <v>0.0814050508829605</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7167</v>
+        <v>6770</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5173</v>
+        <v>4897</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12157</v>
+        <v>12482</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3112</v>
+        <v>3236</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6887</v>
+        <v>7082</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5191</v>
+        <v>5051</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>17929</v>
+        <v>17713</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>6244</v>
+        <v>6004</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>16758</v>
+        <v>17558</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>12835</v>
+        <v>12651</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>32562</v>
+        <v>33976</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9066</v>
+        <v>10151</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>24133</v>
+        <v>23463</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>20140</v>
+        <v>18711</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>29420</v>
+        <v>29861</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>15610</v>
+        <v>15617</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>22023</v>
+        <v>21546</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>17472</v>
+        <v>18122</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>34273</v>
+        <v>34290</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>20948</v>
+        <v>20573</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>39051</v>
+        <v>40011</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>32805</v>
+        <v>32235</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>56830</v>
+        <v>59161</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9272</v>
+        <v>9135</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>16393</v>
+        <v>16713</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>20512</v>
+        <v>20030</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>42456</v>
+        <v>44664</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>18838</v>
+        <v>17942</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>10639</v>
+        <v>10783</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>32748</v>
+        <v>33654</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>56669</v>
+        <v>57097</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>30953</v>
+        <v>30832</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>32623</v>
+        <v>30141</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>59382</v>
+        <v>60742</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>106943</v>
+        <v>109993</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>25287</v>
+        <v>25563</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>37290</v>
+        <v>38748</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>43819</v>
+        <v>44855</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>80082</v>
+        <v>83133</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>40393</v>
+        <v>40005</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>28464</v>
+        <v>28919</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>61654</v>
+        <v>61718</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>87456</v>
+        <v>85657</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>57644</v>
+        <v>57958</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>58283</v>
+        <v>58679</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>97908</v>
+        <v>95720</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>154287</v>
+        <v>157337</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19242</v>
+        <v>18685</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>20145</v>
+        <v>20623</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12350</v>
+        <v>12354</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>43838</v>
+        <v>43635</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>26975</v>
+        <v>26181</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>20681</v>
+        <v>19333</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>19700</v>
+        <v>19113</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>62713</v>
+        <v>63982</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>50873</v>
+        <v>50599</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>44565</v>
+        <v>45238</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>35872</v>
+        <v>36270</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>115828</v>
+        <v>114438</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>41678</v>
+        <v>41005</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45488</v>
+        <v>45890</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>30135</v>
+        <v>29956</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>74626</v>
+        <v>75769</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>50350</v>
+        <v>49745</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>44754</v>
+        <v>45830</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>39924</v>
+        <v>40713</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>94862</v>
+        <v>96646</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>83879</v>
+        <v>82586</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>79983</v>
+        <v>79750</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>63681</v>
+        <v>64180</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>159625</v>
+        <v>158557</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>32214</v>
+        <v>32618</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>30640</v>
+        <v>30592</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>38989</v>
+        <v>40792</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>76664</v>
+        <v>78624</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>47460</v>
+        <v>45531</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>43206</v>
+        <v>42692</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>58357</v>
+        <v>57688</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>123090</v>
+        <v>123961</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>86948</v>
+        <v>86596</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>81694</v>
+        <v>81449</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>105367</v>
+        <v>106056</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>212071</v>
+        <v>210181</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>58354</v>
+        <v>56724</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>57990</v>
+        <v>57583</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>67901</v>
+        <v>67851</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>115587</v>
+        <v>116506</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>78522</v>
+        <v>76218</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>73113</v>
+        <v>73491</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>91341</v>
+        <v>91784</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>162292</v>
+        <v>164844</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>129618</v>
+        <v>127445</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>121339</v>
+        <v>119684</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>148793</v>
+        <v>149738</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>267268</v>
+        <v>263446</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>73663</v>
+        <v>73756</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>91699</v>
+        <v>90449</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>94607</v>
+        <v>92077</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>202060</v>
+        <v>201765</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>110683</v>
+        <v>110335</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>97686</v>
+        <v>96991</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>130636</v>
+        <v>134850</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>285830</v>
+        <v>286957</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>196686</v>
+        <v>197032</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>200478</v>
+        <v>199398</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>238253</v>
+        <v>241913</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>503502</v>
+        <v>503933</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>110842</v>
+        <v>110124</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>137314</v>
+        <v>133849</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>137731</v>
+        <v>134708</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>264991</v>
+        <v>269990</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>159296</v>
+        <v>156965</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>144063</v>
+        <v>142873</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>182674</v>
+        <v>184637</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>346085</v>
+        <v>346121</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>254656</v>
+        <v>256561</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>268294</v>
+        <v>261845</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>306806</v>
+        <v>307656</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>592037</v>
+        <v>591507</v>
       </c>
     </row>
     <row r="24">
